--- a/subject_wise_year_3.xlsx
+++ b/subject_wise_year_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="164">
   <si>
     <t>Inter College Subject-wise Comparison
 Year: 3</t>
@@ -60,6 +60,453 @@
   </si>
   <si>
     <t>ITS</t>
+  </si>
+  <si>
+    <t>NCE654</t>
+  </si>
+  <si>
+    <t>SURVEY CAMP**</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NCE651</t>
+  </si>
+  <si>
+    <t>STRUCTURAL DETALLING LAB</t>
+  </si>
+  <si>
+    <t>NCE653</t>
+  </si>
+  <si>
+    <t>CAD LAB-2</t>
+  </si>
+  <si>
+    <t>NCE652</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL ENGINEERING LAB</t>
+  </si>
+  <si>
+    <t>NEC022</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLER AND ITS APPLICATIONS</t>
+  </si>
+  <si>
+    <t>NEC012</t>
+  </si>
+  <si>
+    <t>COMPUTER ARCHITECTURE AND ORGANIZATION</t>
+  </si>
+  <si>
+    <t>NEC011</t>
+  </si>
+  <si>
+    <t>DIGITAL SIGNAL PROCESSING</t>
+  </si>
+  <si>
+    <t>NEN022</t>
+  </si>
+  <si>
+    <t>WIRELESS COMMUNICATION</t>
+  </si>
+  <si>
+    <t>NME014</t>
+  </si>
+  <si>
+    <t>MECHATRONICS</t>
+  </si>
+  <si>
+    <t>NCE014</t>
+  </si>
+  <si>
+    <t>PRINCIPALS OF TOWN PLANNING AND ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>NEC609</t>
+  </si>
+  <si>
+    <t>COMMUNICATION ENGINEERING</t>
+  </si>
+  <si>
+    <t>NEE601</t>
+  </si>
+  <si>
+    <t>POWER SYSTEMS ANALYSIS</t>
+  </si>
+  <si>
+    <t>NEC602</t>
+  </si>
+  <si>
+    <t>DIGITAL COMMUNICATION</t>
+  </si>
+  <si>
+    <t>NEC603</t>
+  </si>
+  <si>
+    <t>INTEGRATED CIRCUIT TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>NEE602</t>
+  </si>
+  <si>
+    <t>SWITCHGEAR &amp; PROTECTION</t>
+  </si>
+  <si>
+    <t>NEC601</t>
+  </si>
+  <si>
+    <t>MICROWAVE ENGINEERING</t>
+  </si>
+  <si>
+    <t>NME021</t>
+  </si>
+  <si>
+    <t>FLUID MACHINERY</t>
+  </si>
+  <si>
+    <t>NIC011</t>
+  </si>
+  <si>
+    <t>ELECTRICAL MACHINES</t>
+  </si>
+  <si>
+    <t>NCS653</t>
+  </si>
+  <si>
+    <t>COMPILER DESIGN LAB</t>
+  </si>
+  <si>
+    <t>NCS652</t>
+  </si>
+  <si>
+    <t>SOFTWARE ENGINEERING LAB</t>
+  </si>
+  <si>
+    <t>NCS651</t>
+  </si>
+  <si>
+    <t>COMPUTER NETWORKS LAB</t>
+  </si>
+  <si>
+    <t>NCS068</t>
+  </si>
+  <si>
+    <t>E-COMMERCE</t>
+  </si>
+  <si>
+    <t>NEN652</t>
+  </si>
+  <si>
+    <t>ELECTRICAL &amp; ELECTRONICS CAD LAB</t>
+  </si>
+  <si>
+    <t>NEN653</t>
+  </si>
+  <si>
+    <t>MINOR PROJECT</t>
+  </si>
+  <si>
+    <t>NCS654</t>
+  </si>
+  <si>
+    <t>SEMINAR</t>
+  </si>
+  <si>
+    <t>NME602</t>
+  </si>
+  <si>
+    <t>MACHINE DESIGN-II</t>
+  </si>
+  <si>
+    <t>NME603</t>
+  </si>
+  <si>
+    <t>DYNAMICS OF MACHINES</t>
+  </si>
+  <si>
+    <t>NME604</t>
+  </si>
+  <si>
+    <t>REFRIGERATION &amp; AIR CONDITIONING</t>
+  </si>
+  <si>
+    <t>NCS069</t>
+  </si>
+  <si>
+    <t>ADVANCE DBMS</t>
+  </si>
+  <si>
+    <t>NCE013</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL MANAGEMENT FOR INDUSTRIES</t>
+  </si>
+  <si>
+    <t>NEN024</t>
+  </si>
+  <si>
+    <t>NCE011</t>
+  </si>
+  <si>
+    <t>ADVANCE FOUNDATION DESIGN</t>
+  </si>
+  <si>
+    <t>NCS067</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED DATABASE</t>
+  </si>
+  <si>
+    <t>NEN021</t>
+  </si>
+  <si>
+    <t>VLSI DESIGN</t>
+  </si>
+  <si>
+    <t>NCS063</t>
+  </si>
+  <si>
+    <t>PARALLEL ALGORITHM</t>
+  </si>
+  <si>
+    <t>NHU601</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL MANAGEMENT</t>
+  </si>
+  <si>
+    <t>NEC023</t>
+  </si>
+  <si>
+    <t>ANALOG SIGNAL PROCESSING</t>
+  </si>
+  <si>
+    <t>NEC021</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL ELECTRONICS</t>
+  </si>
+  <si>
+    <t>NME011</t>
+  </si>
+  <si>
+    <t>ENGINEERING OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>NME013</t>
+  </si>
+  <si>
+    <t>MECHANICAL VIBRATIONS</t>
+  </si>
+  <si>
+    <t>NME012</t>
+  </si>
+  <si>
+    <t>FINITE ELEMENT METHODS</t>
+  </si>
+  <si>
+    <t>NCE602</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL ENGINEERING-2</t>
+  </si>
+  <si>
+    <t>NCE603</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION TECHNOLOGY &amp; MANAGEMENT</t>
+  </si>
+  <si>
+    <t>NCE601</t>
+  </si>
+  <si>
+    <t>DESIGN OF CONCRETE STRUCTURE-2</t>
+  </si>
+  <si>
+    <t>NGP601</t>
+  </si>
+  <si>
+    <t>G.P.</t>
+  </si>
+  <si>
+    <t>AUC001</t>
+  </si>
+  <si>
+    <t>NIC601</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLERS</t>
+  </si>
+  <si>
+    <t>NIT654</t>
+  </si>
+  <si>
+    <t>NEC654</t>
+  </si>
+  <si>
+    <t>NEN603</t>
+  </si>
+  <si>
+    <t>INTEGRATED CIRCUITS</t>
+  </si>
+  <si>
+    <t>NEC651</t>
+  </si>
+  <si>
+    <t>ANTENNA AND MICROWAVE LAB</t>
+  </si>
+  <si>
+    <t>NEC653</t>
+  </si>
+  <si>
+    <t>CAD OF ELECTRONICS LAB</t>
+  </si>
+  <si>
+    <t>NEC652</t>
+  </si>
+  <si>
+    <t>COMMUNICATION LAB-II</t>
+  </si>
+  <si>
+    <t>NIT067</t>
+  </si>
+  <si>
+    <t>BIG DATA</t>
+  </si>
+  <si>
+    <t>NIT065</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIC INFORMATION SYSTEM</t>
+  </si>
+  <si>
+    <t>NIT064</t>
+  </si>
+  <si>
+    <t>KNOWLEDGE BASED &amp; DECISION SUPPORT SYSTEM</t>
+  </si>
+  <si>
+    <t>NEC659</t>
+  </si>
+  <si>
+    <t>COMMUNICATION LAB</t>
+  </si>
+  <si>
+    <t>NEN012</t>
+  </si>
+  <si>
+    <t>FUNDAMENTAL OF DIGITAL SIGNAL PROCESSING</t>
+  </si>
+  <si>
+    <t>NIT061</t>
+  </si>
+  <si>
+    <t>INFORMATION RETRIEVAL AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t>NCS066</t>
+  </si>
+  <si>
+    <t>DATA WAREHOUSING &amp; DATA MINING</t>
+  </si>
+  <si>
+    <t>NME653</t>
+  </si>
+  <si>
+    <t>THEORY OF MACHINES LAB</t>
+  </si>
+  <si>
+    <t>NME652</t>
+  </si>
+  <si>
+    <t>MACHINE DESIGN-II LAB</t>
+  </si>
+  <si>
+    <t>NME651</t>
+  </si>
+  <si>
+    <t>FLUID MACHINERY LAB</t>
+  </si>
+  <si>
+    <t>NCS070</t>
+  </si>
+  <si>
+    <t>HUMAN COMPUTER INTERFACE</t>
+  </si>
+  <si>
+    <t>NME654</t>
+  </si>
+  <si>
+    <t>REFRIGERATION &amp; AIR CONDITIONING LAB</t>
+  </si>
+  <si>
+    <t>NIC022</t>
+  </si>
+  <si>
+    <t>INTELLIGENT INSTRUMENTATION</t>
+  </si>
+  <si>
+    <t>NIC602</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL INSTRUMENTATION</t>
+  </si>
+  <si>
+    <t>NIC651</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLER LAB</t>
+  </si>
+  <si>
+    <t>NCE023</t>
+  </si>
+  <si>
+    <t>TRANSPOTATION SYSTEM AND PLANNING</t>
+  </si>
+  <si>
+    <t>NIC654</t>
+  </si>
+  <si>
+    <t>NCE024</t>
+  </si>
+  <si>
+    <t>RURAL WATER SUPPLY AND SANITATION</t>
+  </si>
+  <si>
+    <t>NCS601</t>
+  </si>
+  <si>
+    <t>COMPUTER NETWORKS</t>
+  </si>
+  <si>
+    <t>NCS602</t>
+  </si>
+  <si>
+    <t>SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t>NCS603</t>
+  </si>
+  <si>
+    <t>COMPILER DESIGN</t>
+  </si>
+  <si>
+    <t>NEN014</t>
+  </si>
+  <si>
+    <t>SPECIAL ELECTRICAL MACHINE</t>
+  </si>
+  <si>
+    <t>NEN654</t>
+  </si>
+  <si>
+    <t>NIC021</t>
+  </si>
+  <si>
+    <t>OPTO- ELECTRONICS</t>
   </si>
 </sst>
 </file>
@@ -103,10 +550,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AC80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,7 +862,7 @@
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" customHeight="1">
+    <row r="1" spans="1:29" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,11 +894,8 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,7 +948,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:29">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -586,9 +1033,6860 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>71</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>64</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>29</v>
+      </c>
+      <c r="V4">
+        <v>100</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>80</v>
+      </c>
+      <c r="Y4">
+        <v>100</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>12</v>
+      </c>
+      <c r="AB4">
+        <v>100</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>78</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>63</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>71</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5">
+        <v>64</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>29</v>
+      </c>
+      <c r="V5">
+        <v>100</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>80</v>
+      </c>
+      <c r="Y5">
+        <v>100</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <v>100</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>63</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>71</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6">
+        <v>64</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>29</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>80</v>
+      </c>
+      <c r="Y6">
+        <v>100</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>12</v>
+      </c>
+      <c r="AB6">
+        <v>100</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>71</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7">
+        <v>64</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>29</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>80</v>
+      </c>
+      <c r="Y7">
+        <v>100</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>12</v>
+      </c>
+      <c r="AB7">
+        <v>100</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>153</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>121</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>60</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>70</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>43</v>
+      </c>
+      <c r="V8">
+        <v>100</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>135</v>
+      </c>
+      <c r="Y8">
+        <v>99.26</v>
+      </c>
+      <c r="Z8">
+        <v>0.74</v>
+      </c>
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8">
+        <v>88.89</v>
+      </c>
+      <c r="AC8">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9">
+        <v>53</v>
+      </c>
+      <c r="Y9">
+        <v>94.34</v>
+      </c>
+      <c r="Z9">
+        <v>5.66</v>
+      </c>
+      <c r="AA9">
+        <v>11</v>
+      </c>
+      <c r="AB9">
+        <v>100</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>102</v>
+      </c>
+      <c r="D10">
+        <v>99.02</v>
+      </c>
+      <c r="E10">
+        <v>0.98</v>
+      </c>
+      <c r="F10">
+        <v>170</v>
+      </c>
+      <c r="G10">
+        <v>98.82</v>
+      </c>
+      <c r="H10">
+        <v>1.18</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>121</v>
+      </c>
+      <c r="M10">
+        <v>95.87</v>
+      </c>
+      <c r="N10">
+        <v>4.13</v>
+      </c>
+      <c r="O10">
+        <v>60</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>70</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>68</v>
+      </c>
+      <c r="V10">
+        <v>97.06</v>
+      </c>
+      <c r="W10">
+        <v>2.94</v>
+      </c>
+      <c r="X10">
+        <v>82</v>
+      </c>
+      <c r="Y10">
+        <v>100</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>17</v>
+      </c>
+      <c r="AB10">
+        <v>100</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>83</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>68</v>
+      </c>
+      <c r="S11">
+        <v>98.53</v>
+      </c>
+      <c r="T11">
+        <v>1.47</v>
+      </c>
+      <c r="U11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11">
+        <v>94</v>
+      </c>
+      <c r="Y11">
+        <v>100</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>163</v>
+      </c>
+      <c r="D12">
+        <v>98.77</v>
+      </c>
+      <c r="E12">
+        <v>1.23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>107</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12">
+        <v>82</v>
+      </c>
+      <c r="Y12">
+        <v>100</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>105</v>
+      </c>
+      <c r="AB12">
+        <v>99.05</v>
+      </c>
+      <c r="AC12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13">
+        <v>15</v>
+      </c>
+      <c r="V13">
+        <v>100</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>53</v>
+      </c>
+      <c r="Y13">
+        <v>100</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>96.97</v>
+      </c>
+      <c r="E15">
+        <v>3.03</v>
+      </c>
+      <c r="F15">
+        <v>144</v>
+      </c>
+      <c r="G15">
+        <v>97.22</v>
+      </c>
+      <c r="H15">
+        <v>2.78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>102</v>
+      </c>
+      <c r="M15">
+        <v>96.08</v>
+      </c>
+      <c r="N15">
+        <v>3.92</v>
+      </c>
+      <c r="O15">
+        <v>83</v>
+      </c>
+      <c r="P15">
+        <v>91.57</v>
+      </c>
+      <c r="Q15">
+        <v>8.43</v>
+      </c>
+      <c r="R15">
+        <v>68</v>
+      </c>
+      <c r="S15">
+        <v>91.18</v>
+      </c>
+      <c r="T15">
+        <v>8.82</v>
+      </c>
+      <c r="U15">
+        <v>63</v>
+      </c>
+      <c r="V15">
+        <v>79.37</v>
+      </c>
+      <c r="W15">
+        <v>20.63</v>
+      </c>
+      <c r="X15">
+        <v>94</v>
+      </c>
+      <c r="Y15">
+        <v>98.94</v>
+      </c>
+      <c r="Z15">
+        <v>1.06</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>97.47</v>
+      </c>
+      <c r="E16">
+        <v>2.53</v>
+      </c>
+      <c r="F16">
+        <v>153</v>
+      </c>
+      <c r="G16">
+        <v>98.04</v>
+      </c>
+      <c r="H16">
+        <v>1.96</v>
+      </c>
+      <c r="I16">
+        <v>42</v>
+      </c>
+      <c r="J16">
+        <v>95.24</v>
+      </c>
+      <c r="K16">
+        <v>4.76</v>
+      </c>
+      <c r="L16">
+        <v>121</v>
+      </c>
+      <c r="M16">
+        <v>97.52</v>
+      </c>
+      <c r="N16">
+        <v>2.48</v>
+      </c>
+      <c r="O16">
+        <v>60</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>70</v>
+      </c>
+      <c r="S16">
+        <v>98.57</v>
+      </c>
+      <c r="T16">
+        <v>1.43</v>
+      </c>
+      <c r="U16">
+        <v>68</v>
+      </c>
+      <c r="V16">
+        <v>97.06</v>
+      </c>
+      <c r="W16">
+        <v>2.94</v>
+      </c>
+      <c r="X16">
+        <v>135</v>
+      </c>
+      <c r="Y16">
+        <v>100</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>28</v>
+      </c>
+      <c r="AB16">
+        <v>92.86</v>
+      </c>
+      <c r="AC16">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>98.73</v>
+      </c>
+      <c r="E17">
+        <v>1.27</v>
+      </c>
+      <c r="F17">
+        <v>153</v>
+      </c>
+      <c r="G17">
+        <v>98.04</v>
+      </c>
+      <c r="H17">
+        <v>1.96</v>
+      </c>
+      <c r="I17">
+        <v>42</v>
+      </c>
+      <c r="J17">
+        <v>97.62</v>
+      </c>
+      <c r="K17">
+        <v>2.38</v>
+      </c>
+      <c r="L17">
+        <v>121</v>
+      </c>
+      <c r="M17">
+        <v>96.69</v>
+      </c>
+      <c r="N17">
+        <v>3.31</v>
+      </c>
+      <c r="O17">
+        <v>60</v>
+      </c>
+      <c r="P17">
+        <v>98.33</v>
+      </c>
+      <c r="Q17">
+        <v>1.67</v>
+      </c>
+      <c r="R17">
+        <v>70</v>
+      </c>
+      <c r="S17">
+        <v>98.57</v>
+      </c>
+      <c r="T17">
+        <v>1.43</v>
+      </c>
+      <c r="U17">
+        <v>68</v>
+      </c>
+      <c r="V17">
+        <v>83.82</v>
+      </c>
+      <c r="W17">
+        <v>16.18</v>
+      </c>
+      <c r="X17">
+        <v>135</v>
+      </c>
+      <c r="Y17">
+        <v>99.26</v>
+      </c>
+      <c r="Z17">
+        <v>0.74</v>
+      </c>
+      <c r="AA17">
+        <v>28</v>
+      </c>
+      <c r="AB17">
+        <v>96.43</v>
+      </c>
+      <c r="AC17">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>144</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>102</v>
+      </c>
+      <c r="M18">
+        <v>98.04</v>
+      </c>
+      <c r="N18">
+        <v>1.96</v>
+      </c>
+      <c r="O18">
+        <v>83</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>68</v>
+      </c>
+      <c r="S18">
+        <v>98.53</v>
+      </c>
+      <c r="T18">
+        <v>1.47</v>
+      </c>
+      <c r="U18">
+        <v>63</v>
+      </c>
+      <c r="V18">
+        <v>98.41</v>
+      </c>
+      <c r="W18">
+        <v>1.59</v>
+      </c>
+      <c r="X18">
+        <v>94</v>
+      </c>
+      <c r="Y18">
+        <v>98.94</v>
+      </c>
+      <c r="Z18">
+        <v>1.06</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>153</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>42</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>121</v>
+      </c>
+      <c r="M19">
+        <v>99.17</v>
+      </c>
+      <c r="N19">
+        <v>0.83</v>
+      </c>
+      <c r="O19">
+        <v>60</v>
+      </c>
+      <c r="P19">
+        <v>98.33</v>
+      </c>
+      <c r="Q19">
+        <v>1.67</v>
+      </c>
+      <c r="R19">
+        <v>70</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>68</v>
+      </c>
+      <c r="V19">
+        <v>92.65</v>
+      </c>
+      <c r="W19">
+        <v>7.35</v>
+      </c>
+      <c r="X19">
+        <v>135</v>
+      </c>
+      <c r="Y19">
+        <v>98.52</v>
+      </c>
+      <c r="Z19">
+        <v>1.48</v>
+      </c>
+      <c r="AA19">
+        <v>28</v>
+      </c>
+      <c r="AB19">
+        <v>92.86</v>
+      </c>
+      <c r="AC19">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>163</v>
+      </c>
+      <c r="D20">
+        <v>99.39</v>
+      </c>
+      <c r="E20">
+        <v>0.61</v>
+      </c>
+      <c r="F20">
+        <v>157</v>
+      </c>
+      <c r="G20">
+        <v>98.73</v>
+      </c>
+      <c r="H20">
+        <v>1.27</v>
+      </c>
+      <c r="I20">
+        <v>107</v>
+      </c>
+      <c r="J20">
+        <v>99.07</v>
+      </c>
+      <c r="K20">
+        <v>0.93</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20">
+        <v>89</v>
+      </c>
+      <c r="P20">
+        <v>97.75</v>
+      </c>
+      <c r="Q20">
+        <v>2.25</v>
+      </c>
+      <c r="R20">
+        <v>95</v>
+      </c>
+      <c r="S20">
+        <v>98.95</v>
+      </c>
+      <c r="T20">
+        <v>1.05</v>
+      </c>
+      <c r="U20">
+        <v>113</v>
+      </c>
+      <c r="V20">
+        <v>92.92</v>
+      </c>
+      <c r="W20">
+        <v>7.08</v>
+      </c>
+      <c r="X20">
+        <v>82</v>
+      </c>
+      <c r="Y20">
+        <v>97.56</v>
+      </c>
+      <c r="Z20">
+        <v>2.44</v>
+      </c>
+      <c r="AA20">
+        <v>105</v>
+      </c>
+      <c r="AB20">
+        <v>92.38</v>
+      </c>
+      <c r="AC20">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" t="s">
+        <v>17</v>
+      </c>
+      <c r="U21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>204</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>259</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>211</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>174</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>123</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>106</v>
+      </c>
+      <c r="S22">
+        <v>100</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>86</v>
+      </c>
+      <c r="V22">
+        <v>100</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>263</v>
+      </c>
+      <c r="Y22">
+        <v>100</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>75</v>
+      </c>
+      <c r="AB22">
+        <v>100</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>204</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>259</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>211</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>174</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>123</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>106</v>
+      </c>
+      <c r="S23">
+        <v>100</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>86</v>
+      </c>
+      <c r="V23">
+        <v>100</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>263</v>
+      </c>
+      <c r="Y23">
+        <v>100</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>75</v>
+      </c>
+      <c r="AB23">
+        <v>100</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>204</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>259</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>211</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>174</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>123</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>106</v>
+      </c>
+      <c r="S24">
+        <v>100</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>86</v>
+      </c>
+      <c r="V24">
+        <v>100</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>263</v>
+      </c>
+      <c r="Y24">
+        <v>100</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>75</v>
+      </c>
+      <c r="AB24">
+        <v>100</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25">
+        <v>74</v>
+      </c>
+      <c r="S25">
+        <v>100</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>17</v>
+      </c>
+      <c r="V25" t="s">
+        <v>17</v>
+      </c>
+      <c r="W25" t="s">
+        <v>17</v>
+      </c>
+      <c r="X25">
+        <v>105</v>
+      </c>
+      <c r="Y25">
+        <v>99.05</v>
+      </c>
+      <c r="Z25">
+        <v>0.95</v>
+      </c>
+      <c r="AA25">
+        <v>43</v>
+      </c>
+      <c r="AB25">
+        <v>100</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>144</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26">
+        <v>102</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>83</v>
+      </c>
+      <c r="P26">
+        <v>100</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>68</v>
+      </c>
+      <c r="S26">
+        <v>100</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>63</v>
+      </c>
+      <c r="V26">
+        <v>100</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>94</v>
+      </c>
+      <c r="Y26">
+        <v>100</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>144</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>102</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>83</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>68</v>
+      </c>
+      <c r="S27">
+        <v>100</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>63</v>
+      </c>
+      <c r="V27">
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>94</v>
+      </c>
+      <c r="Y27">
+        <v>100</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>129</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>159</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>118</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>131</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>92</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>74</v>
+      </c>
+      <c r="S28">
+        <v>100</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>86</v>
+      </c>
+      <c r="V28">
+        <v>100</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>186</v>
+      </c>
+      <c r="Y28">
+        <v>100</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>64</v>
+      </c>
+      <c r="AB28">
+        <v>100</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>163</v>
+      </c>
+      <c r="D29">
+        <v>97.55</v>
+      </c>
+      <c r="E29">
+        <v>2.45</v>
+      </c>
+      <c r="F29">
+        <v>157</v>
+      </c>
+      <c r="G29">
+        <v>94.27</v>
+      </c>
+      <c r="H29">
+        <v>5.73</v>
+      </c>
+      <c r="I29">
+        <v>107</v>
+      </c>
+      <c r="J29">
+        <v>98.13</v>
+      </c>
+      <c r="K29">
+        <v>1.87</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29">
+        <v>89</v>
+      </c>
+      <c r="P29">
+        <v>96.63</v>
+      </c>
+      <c r="Q29">
+        <v>3.37</v>
+      </c>
+      <c r="R29">
+        <v>95</v>
+      </c>
+      <c r="S29">
+        <v>97.89</v>
+      </c>
+      <c r="T29">
+        <v>2.11</v>
+      </c>
+      <c r="U29">
+        <v>113</v>
+      </c>
+      <c r="V29">
+        <v>95.58</v>
+      </c>
+      <c r="W29">
+        <v>4.42</v>
+      </c>
+      <c r="X29">
+        <v>82</v>
+      </c>
+      <c r="Y29">
+        <v>98.78</v>
+      </c>
+      <c r="Z29">
+        <v>1.22</v>
+      </c>
+      <c r="AA29">
+        <v>105</v>
+      </c>
+      <c r="AB29">
+        <v>97.14</v>
+      </c>
+      <c r="AC29">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>163</v>
+      </c>
+      <c r="D30">
+        <v>97.55</v>
+      </c>
+      <c r="E30">
+        <v>2.45</v>
+      </c>
+      <c r="F30">
+        <v>157</v>
+      </c>
+      <c r="G30">
+        <v>97.45</v>
+      </c>
+      <c r="H30">
+        <v>2.55</v>
+      </c>
+      <c r="I30">
+        <v>107</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30">
+        <v>89</v>
+      </c>
+      <c r="P30">
+        <v>98.88</v>
+      </c>
+      <c r="Q30">
+        <v>1.12</v>
+      </c>
+      <c r="R30">
+        <v>95</v>
+      </c>
+      <c r="S30">
+        <v>97.89</v>
+      </c>
+      <c r="T30">
+        <v>2.11</v>
+      </c>
+      <c r="U30">
+        <v>113</v>
+      </c>
+      <c r="V30">
+        <v>89.38</v>
+      </c>
+      <c r="W30">
+        <v>10.62</v>
+      </c>
+      <c r="X30">
+        <v>82</v>
+      </c>
+      <c r="Y30">
+        <v>98.78</v>
+      </c>
+      <c r="Z30">
+        <v>1.22</v>
+      </c>
+      <c r="AA30">
+        <v>105</v>
+      </c>
+      <c r="AB30">
+        <v>90.48</v>
+      </c>
+      <c r="AC30">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>163</v>
+      </c>
+      <c r="D31">
+        <v>96.93</v>
+      </c>
+      <c r="E31">
+        <v>3.07</v>
+      </c>
+      <c r="F31">
+        <v>157</v>
+      </c>
+      <c r="G31">
+        <v>91.08</v>
+      </c>
+      <c r="H31">
+        <v>8.92</v>
+      </c>
+      <c r="I31">
+        <v>107</v>
+      </c>
+      <c r="J31">
+        <v>97.2</v>
+      </c>
+      <c r="K31">
+        <v>2.8</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31">
+        <v>89</v>
+      </c>
+      <c r="P31">
+        <v>98.88</v>
+      </c>
+      <c r="Q31">
+        <v>1.12</v>
+      </c>
+      <c r="R31">
+        <v>95</v>
+      </c>
+      <c r="S31">
+        <v>95.79</v>
+      </c>
+      <c r="T31">
+        <v>4.21</v>
+      </c>
+      <c r="U31">
+        <v>113</v>
+      </c>
+      <c r="V31">
+        <v>84.96</v>
+      </c>
+      <c r="W31">
+        <v>15.04</v>
+      </c>
+      <c r="X31">
+        <v>82</v>
+      </c>
+      <c r="Y31">
+        <v>93.9</v>
+      </c>
+      <c r="Z31">
+        <v>6.1</v>
+      </c>
+      <c r="AA31">
+        <v>105</v>
+      </c>
+      <c r="AB31">
+        <v>90.48</v>
+      </c>
+      <c r="AC31">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>129</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" t="s">
+        <v>17</v>
+      </c>
+      <c r="T33" t="s">
+        <v>17</v>
+      </c>
+      <c r="U33" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" t="s">
+        <v>17</v>
+      </c>
+      <c r="W33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X33" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34">
+        <v>102</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" t="s">
+        <v>17</v>
+      </c>
+      <c r="T34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U34">
+        <v>63</v>
+      </c>
+      <c r="V34">
+        <v>98.41</v>
+      </c>
+      <c r="W34">
+        <v>1.59</v>
+      </c>
+      <c r="X34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>43</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>37</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>71</v>
+      </c>
+      <c r="M35">
+        <v>100</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <v>64</v>
+      </c>
+      <c r="S35">
+        <v>100</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>14</v>
+      </c>
+      <c r="V35">
+        <v>100</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>27</v>
+      </c>
+      <c r="Y35">
+        <v>96.3</v>
+      </c>
+      <c r="Z35">
+        <v>3.7</v>
+      </c>
+      <c r="AA35">
+        <v>12</v>
+      </c>
+      <c r="AB35">
+        <v>100</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>159</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>51</v>
+      </c>
+      <c r="J36">
+        <v>98.04</v>
+      </c>
+      <c r="K36">
+        <v>1.96</v>
+      </c>
+      <c r="L36">
+        <v>44</v>
+      </c>
+      <c r="M36">
+        <v>97.73</v>
+      </c>
+      <c r="N36">
+        <v>2.27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36" t="s">
+        <v>17</v>
+      </c>
+      <c r="S36" t="s">
+        <v>17</v>
+      </c>
+      <c r="T36" t="s">
+        <v>17</v>
+      </c>
+      <c r="U36" t="s">
+        <v>17</v>
+      </c>
+      <c r="V36" t="s">
+        <v>17</v>
+      </c>
+      <c r="W36" t="s">
+        <v>17</v>
+      </c>
+      <c r="X36" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA36">
+        <v>11</v>
+      </c>
+      <c r="AB36">
+        <v>100</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>144</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" t="s">
+        <v>17</v>
+      </c>
+      <c r="T37" t="s">
+        <v>17</v>
+      </c>
+      <c r="U37" t="s">
+        <v>17</v>
+      </c>
+      <c r="V37" t="s">
+        <v>17</v>
+      </c>
+      <c r="W37" t="s">
+        <v>17</v>
+      </c>
+      <c r="X37" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38">
+        <v>129</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>159</v>
+      </c>
+      <c r="G38">
+        <v>98.74</v>
+      </c>
+      <c r="H38">
+        <v>1.26</v>
+      </c>
+      <c r="I38">
+        <v>118</v>
+      </c>
+      <c r="J38">
+        <v>99.15</v>
+      </c>
+      <c r="K38">
+        <v>0.85</v>
+      </c>
+      <c r="L38">
+        <v>131</v>
+      </c>
+      <c r="M38">
+        <v>96.95</v>
+      </c>
+      <c r="N38">
+        <v>3.05</v>
+      </c>
+      <c r="O38">
+        <v>92</v>
+      </c>
+      <c r="P38">
+        <v>100</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>74</v>
+      </c>
+      <c r="S38">
+        <v>100</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>86</v>
+      </c>
+      <c r="V38">
+        <v>100</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>186</v>
+      </c>
+      <c r="Y38">
+        <v>98.92</v>
+      </c>
+      <c r="Z38">
+        <v>1.08</v>
+      </c>
+      <c r="AA38">
+        <v>64</v>
+      </c>
+      <c r="AB38">
+        <v>92.19</v>
+      </c>
+      <c r="AC38">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39">
+        <v>521</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>824</v>
+      </c>
+      <c r="G39">
+        <v>99.64</v>
+      </c>
+      <c r="H39">
+        <v>0.36</v>
+      </c>
+      <c r="I39">
+        <v>423</v>
+      </c>
+      <c r="J39">
+        <v>99.76</v>
+      </c>
+      <c r="K39">
+        <v>0.24</v>
+      </c>
+      <c r="L39">
+        <v>468</v>
+      </c>
+      <c r="M39">
+        <v>99.57</v>
+      </c>
+      <c r="N39">
+        <v>0.43</v>
+      </c>
+      <c r="O39">
+        <v>355</v>
+      </c>
+      <c r="P39">
+        <v>100</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>403</v>
+      </c>
+      <c r="S39">
+        <v>100</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>359</v>
+      </c>
+      <c r="V39">
+        <v>100</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>654</v>
+      </c>
+      <c r="Y39">
+        <v>99.85</v>
+      </c>
+      <c r="Z39">
+        <v>0.15</v>
+      </c>
+      <c r="AA39">
+        <v>220</v>
+      </c>
+      <c r="AB39">
+        <v>99.09</v>
+      </c>
+      <c r="AC39">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40">
+        <v>102</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" t="s">
+        <v>17</v>
+      </c>
+      <c r="T40" t="s">
+        <v>17</v>
+      </c>
+      <c r="U40" t="s">
+        <v>17</v>
+      </c>
+      <c r="V40" t="s">
+        <v>17</v>
+      </c>
+      <c r="W40" t="s">
+        <v>17</v>
+      </c>
+      <c r="X40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA40">
+        <v>19</v>
+      </c>
+      <c r="AB40">
+        <v>100</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>17</v>
+      </c>
+      <c r="R41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S41" t="s">
+        <v>17</v>
+      </c>
+      <c r="T41" t="s">
+        <v>17</v>
+      </c>
+      <c r="U41">
+        <v>25</v>
+      </c>
+      <c r="V41">
+        <v>88</v>
+      </c>
+      <c r="W41">
+        <v>12</v>
+      </c>
+      <c r="X41" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42">
+        <v>89</v>
+      </c>
+      <c r="P42">
+        <v>100</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>17</v>
+      </c>
+      <c r="S42" t="s">
+        <v>17</v>
+      </c>
+      <c r="T42" t="s">
+        <v>17</v>
+      </c>
+      <c r="U42" t="s">
+        <v>17</v>
+      </c>
+      <c r="V42" t="s">
+        <v>17</v>
+      </c>
+      <c r="W42" t="s">
+        <v>17</v>
+      </c>
+      <c r="X42" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>112</v>
+      </c>
+      <c r="G43">
+        <v>98.21</v>
+      </c>
+      <c r="H43">
+        <v>1.79</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>100</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43" t="s">
+        <v>17</v>
+      </c>
+      <c r="V43" t="s">
+        <v>17</v>
+      </c>
+      <c r="W43" t="s">
+        <v>17</v>
+      </c>
+      <c r="X43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>45</v>
+      </c>
+      <c r="G44">
+        <v>95.56</v>
+      </c>
+      <c r="H44">
+        <v>4.44</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>17</v>
+      </c>
+      <c r="R44">
+        <v>93</v>
+      </c>
+      <c r="S44">
+        <v>100</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>113</v>
+      </c>
+      <c r="V44">
+        <v>95.58</v>
+      </c>
+      <c r="W44">
+        <v>4.42</v>
+      </c>
+      <c r="X44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>78</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>63</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>71</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>17</v>
+      </c>
+      <c r="P45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>17</v>
+      </c>
+      <c r="R45">
+        <v>64</v>
+      </c>
+      <c r="S45">
+        <v>100</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>29</v>
+      </c>
+      <c r="V45">
+        <v>100</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>80</v>
+      </c>
+      <c r="Y45">
+        <v>100</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>12</v>
+      </c>
+      <c r="AB45">
+        <v>75</v>
+      </c>
+      <c r="AC45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>78</v>
+      </c>
+      <c r="G46">
+        <v>98.72</v>
+      </c>
+      <c r="H46">
+        <v>1.28</v>
+      </c>
+      <c r="I46">
+        <v>63</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>71</v>
+      </c>
+      <c r="M46">
+        <v>97.18</v>
+      </c>
+      <c r="N46">
+        <v>2.82</v>
+      </c>
+      <c r="O46" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46">
+        <v>64</v>
+      </c>
+      <c r="S46">
+        <v>100</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>29</v>
+      </c>
+      <c r="V46">
+        <v>96.55</v>
+      </c>
+      <c r="W46">
+        <v>3.45</v>
+      </c>
+      <c r="X46">
+        <v>80</v>
+      </c>
+      <c r="Y46">
+        <v>98.75</v>
+      </c>
+      <c r="Z46">
+        <v>1.25</v>
+      </c>
+      <c r="AA46">
+        <v>12</v>
+      </c>
+      <c r="AB46">
+        <v>100</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>78</v>
+      </c>
+      <c r="G47">
+        <v>98.72</v>
+      </c>
+      <c r="H47">
+        <v>1.28</v>
+      </c>
+      <c r="I47">
+        <v>63</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>71</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>17</v>
+      </c>
+      <c r="R47">
+        <v>64</v>
+      </c>
+      <c r="S47">
+        <v>100</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>29</v>
+      </c>
+      <c r="V47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>80</v>
+      </c>
+      <c r="Y47">
+        <v>100</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>12</v>
+      </c>
+      <c r="AB47">
+        <v>91.67</v>
+      </c>
+      <c r="AC47">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48">
+        <v>521</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>824</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>423</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>468</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>355</v>
+      </c>
+      <c r="P48">
+        <v>100</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>403</v>
+      </c>
+      <c r="S48">
+        <v>100</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>359</v>
+      </c>
+      <c r="V48">
+        <v>99.16</v>
+      </c>
+      <c r="W48">
+        <v>0.84</v>
+      </c>
+      <c r="X48">
+        <v>654</v>
+      </c>
+      <c r="Y48">
+        <v>99.69</v>
+      </c>
+      <c r="Z48">
+        <v>0.31</v>
+      </c>
+      <c r="AA48">
+        <v>220</v>
+      </c>
+      <c r="AB48">
+        <v>100</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>100</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>100</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>100</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>4</v>
+      </c>
+      <c r="Y49">
+        <v>100</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>91.3</v>
+      </c>
+      <c r="E50">
+        <v>8.7</v>
+      </c>
+      <c r="F50">
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" t="s">
+        <v>17</v>
+      </c>
+      <c r="P50" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>17</v>
+      </c>
+      <c r="R50" t="s">
+        <v>17</v>
+      </c>
+      <c r="S50" t="s">
+        <v>17</v>
+      </c>
+      <c r="T50" t="s">
+        <v>17</v>
+      </c>
+      <c r="U50" t="s">
+        <v>17</v>
+      </c>
+      <c r="V50" t="s">
+        <v>17</v>
+      </c>
+      <c r="W50" t="s">
+        <v>17</v>
+      </c>
+      <c r="X50" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>93</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>43</v>
+      </c>
+      <c r="M51">
+        <v>100</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>31</v>
+      </c>
+      <c r="P51">
+        <v>100</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>32</v>
+      </c>
+      <c r="S51">
+        <v>100</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51" t="s">
+        <v>17</v>
+      </c>
+      <c r="V51" t="s">
+        <v>17</v>
+      </c>
+      <c r="W51" t="s">
+        <v>17</v>
+      </c>
+      <c r="X51">
+        <v>77</v>
+      </c>
+      <c r="Y51">
+        <v>100</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>11</v>
+      </c>
+      <c r="AB51">
+        <v>100</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>79</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>153</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>42</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>121</v>
+      </c>
+      <c r="M52">
+        <v>100</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>60</v>
+      </c>
+      <c r="P52">
+        <v>100</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>70</v>
+      </c>
+      <c r="S52">
+        <v>100</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>68</v>
+      </c>
+      <c r="V52">
+        <v>100</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>135</v>
+      </c>
+      <c r="Y52">
+        <v>100</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>28</v>
+      </c>
+      <c r="AB52">
+        <v>100</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>96.97</v>
+      </c>
+      <c r="E53">
+        <v>3.03</v>
+      </c>
+      <c r="F53">
+        <v>144</v>
+      </c>
+      <c r="G53">
+        <v>98.61</v>
+      </c>
+      <c r="H53">
+        <v>1.39</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53">
+        <v>102</v>
+      </c>
+      <c r="M53">
+        <v>98.04</v>
+      </c>
+      <c r="N53">
+        <v>1.96</v>
+      </c>
+      <c r="O53">
+        <v>83</v>
+      </c>
+      <c r="P53">
+        <v>95.18</v>
+      </c>
+      <c r="Q53">
+        <v>4.82</v>
+      </c>
+      <c r="R53">
+        <v>68</v>
+      </c>
+      <c r="S53">
+        <v>95.59</v>
+      </c>
+      <c r="T53">
+        <v>4.41</v>
+      </c>
+      <c r="U53">
+        <v>63</v>
+      </c>
+      <c r="V53">
+        <v>90.48</v>
+      </c>
+      <c r="W53">
+        <v>9.52</v>
+      </c>
+      <c r="X53">
+        <v>94</v>
+      </c>
+      <c r="Y53">
+        <v>96.81</v>
+      </c>
+      <c r="Z53">
+        <v>3.19</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54">
+        <v>112</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>297</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>42</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>223</v>
+      </c>
+      <c r="M54">
+        <v>100</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>143</v>
+      </c>
+      <c r="P54">
+        <v>100</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>138</v>
+      </c>
+      <c r="S54">
+        <v>100</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>131</v>
+      </c>
+      <c r="V54">
+        <v>100</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>229</v>
+      </c>
+      <c r="Y54">
+        <v>100</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>28</v>
+      </c>
+      <c r="AB54">
+        <v>100</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55">
+        <v>79</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>153</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>42</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>121</v>
+      </c>
+      <c r="M55">
+        <v>100</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>60</v>
+      </c>
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>70</v>
+      </c>
+      <c r="S55">
+        <v>100</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>68</v>
+      </c>
+      <c r="V55">
+        <v>100</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>135</v>
+      </c>
+      <c r="Y55">
+        <v>100</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>28</v>
+      </c>
+      <c r="AB55">
+        <v>100</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56">
+        <v>102</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>186</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>42</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>121</v>
+      </c>
+      <c r="M56">
+        <v>100</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>60</v>
+      </c>
+      <c r="P56">
+        <v>100</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>70</v>
+      </c>
+      <c r="S56">
+        <v>100</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>68</v>
+      </c>
+      <c r="V56">
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>135</v>
+      </c>
+      <c r="Y56">
+        <v>100</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>28</v>
+      </c>
+      <c r="AB56">
+        <v>100</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57">
+        <v>75</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>54</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>93</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>23</v>
+      </c>
+      <c r="M57">
+        <v>100</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>31</v>
+      </c>
+      <c r="P57">
+        <v>100</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
+        <v>17</v>
+      </c>
+      <c r="S57" t="s">
+        <v>17</v>
+      </c>
+      <c r="T57" t="s">
+        <v>17</v>
+      </c>
+      <c r="U57" t="s">
+        <v>17</v>
+      </c>
+      <c r="V57" t="s">
+        <v>17</v>
+      </c>
+      <c r="W57" t="s">
+        <v>17</v>
+      </c>
+      <c r="X57">
+        <v>77</v>
+      </c>
+      <c r="Y57">
+        <v>100</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58">
+        <v>22</v>
+      </c>
+      <c r="M58">
+        <v>100</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>17</v>
+      </c>
+      <c r="R58" t="s">
+        <v>17</v>
+      </c>
+      <c r="S58" t="s">
+        <v>17</v>
+      </c>
+      <c r="T58" t="s">
+        <v>17</v>
+      </c>
+      <c r="U58" t="s">
+        <v>17</v>
+      </c>
+      <c r="V58" t="s">
+        <v>17</v>
+      </c>
+      <c r="W58" t="s">
+        <v>17</v>
+      </c>
+      <c r="X58" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>98.67</v>
+      </c>
+      <c r="E59">
+        <v>1.33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" t="s">
+        <v>17</v>
+      </c>
+      <c r="O59">
+        <v>31</v>
+      </c>
+      <c r="P59">
+        <v>100</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>32</v>
+      </c>
+      <c r="S59">
+        <v>100</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59" t="s">
+        <v>17</v>
+      </c>
+      <c r="V59" t="s">
+        <v>17</v>
+      </c>
+      <c r="W59" t="s">
+        <v>17</v>
+      </c>
+      <c r="X59">
+        <v>77</v>
+      </c>
+      <c r="Y59">
+        <v>100</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>11</v>
+      </c>
+      <c r="AB59">
+        <v>100</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>33</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" t="s">
+        <v>17</v>
+      </c>
+      <c r="O60" t="s">
+        <v>17</v>
+      </c>
+      <c r="P60" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>17</v>
+      </c>
+      <c r="R60" t="s">
+        <v>17</v>
+      </c>
+      <c r="S60" t="s">
+        <v>17</v>
+      </c>
+      <c r="T60" t="s">
+        <v>17</v>
+      </c>
+      <c r="U60" t="s">
+        <v>17</v>
+      </c>
+      <c r="V60" t="s">
+        <v>17</v>
+      </c>
+      <c r="W60" t="s">
+        <v>17</v>
+      </c>
+      <c r="X60" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>17</v>
+      </c>
+      <c r="R61" t="s">
+        <v>17</v>
+      </c>
+      <c r="S61" t="s">
+        <v>17</v>
+      </c>
+      <c r="T61" t="s">
+        <v>17</v>
+      </c>
+      <c r="U61" t="s">
+        <v>17</v>
+      </c>
+      <c r="V61" t="s">
+        <v>17</v>
+      </c>
+      <c r="W61" t="s">
+        <v>17</v>
+      </c>
+      <c r="X61" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>93</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>21</v>
+      </c>
+      <c r="M62">
+        <v>100</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>17</v>
+      </c>
+      <c r="R62" t="s">
+        <v>17</v>
+      </c>
+      <c r="S62" t="s">
+        <v>17</v>
+      </c>
+      <c r="T62" t="s">
+        <v>17</v>
+      </c>
+      <c r="U62" t="s">
+        <v>17</v>
+      </c>
+      <c r="V62" t="s">
+        <v>17</v>
+      </c>
+      <c r="W62" t="s">
+        <v>17</v>
+      </c>
+      <c r="X62" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63">
+        <v>46</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>67</v>
+      </c>
+      <c r="J63">
+        <v>98.51</v>
+      </c>
+      <c r="K63">
+        <v>1.49</v>
+      </c>
+      <c r="L63">
+        <v>38</v>
+      </c>
+      <c r="M63">
+        <v>100</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>92</v>
+      </c>
+      <c r="P63">
+        <v>98.91</v>
+      </c>
+      <c r="Q63">
+        <v>1.09</v>
+      </c>
+      <c r="R63">
+        <v>32</v>
+      </c>
+      <c r="S63">
+        <v>100</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>86</v>
+      </c>
+      <c r="V63">
+        <v>97.67</v>
+      </c>
+      <c r="W63">
+        <v>2.33</v>
+      </c>
+      <c r="X63">
+        <v>81</v>
+      </c>
+      <c r="Y63">
+        <v>100</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>21</v>
+      </c>
+      <c r="AB63">
+        <v>95.24</v>
+      </c>
+      <c r="AC63">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64">
+        <v>163</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>157</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>107</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" t="s">
+        <v>17</v>
+      </c>
+      <c r="O64">
+        <v>89</v>
+      </c>
+      <c r="P64">
+        <v>100</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>95</v>
+      </c>
+      <c r="S64">
+        <v>100</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>113</v>
+      </c>
+      <c r="V64">
+        <v>100</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>82</v>
+      </c>
+      <c r="Y64">
+        <v>100</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>105</v>
+      </c>
+      <c r="AB64">
+        <v>100</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65">
+        <v>163</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>157</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>107</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65" t="s">
+        <v>17</v>
+      </c>
+      <c r="O65">
+        <v>89</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>95</v>
+      </c>
+      <c r="S65">
+        <v>100</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>113</v>
+      </c>
+      <c r="V65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>82</v>
+      </c>
+      <c r="Y65">
+        <v>100</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>105</v>
+      </c>
+      <c r="AB65">
+        <v>100</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66">
+        <v>163</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>157</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>107</v>
+      </c>
+      <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" t="s">
+        <v>17</v>
+      </c>
+      <c r="O66">
+        <v>89</v>
+      </c>
+      <c r="P66">
+        <v>100</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>95</v>
+      </c>
+      <c r="S66">
+        <v>100</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>113</v>
+      </c>
+      <c r="V66">
+        <v>100</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>82</v>
+      </c>
+      <c r="Y66">
+        <v>100</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>105</v>
+      </c>
+      <c r="AB66">
+        <v>100</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67">
+        <v>69</v>
+      </c>
+      <c r="M67">
+        <v>100</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>17</v>
+      </c>
+      <c r="P67" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>17</v>
+      </c>
+      <c r="R67" t="s">
+        <v>17</v>
+      </c>
+      <c r="S67" t="s">
+        <v>17</v>
+      </c>
+      <c r="T67" t="s">
+        <v>17</v>
+      </c>
+      <c r="U67" t="s">
+        <v>17</v>
+      </c>
+      <c r="V67" t="s">
+        <v>17</v>
+      </c>
+      <c r="W67" t="s">
+        <v>17</v>
+      </c>
+      <c r="X67" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68">
+        <v>163</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>157</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>107</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" t="s">
+        <v>17</v>
+      </c>
+      <c r="O68">
+        <v>89</v>
+      </c>
+      <c r="P68">
+        <v>100</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>95</v>
+      </c>
+      <c r="S68">
+        <v>100</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>113</v>
+      </c>
+      <c r="V68">
+        <v>100</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>82</v>
+      </c>
+      <c r="Y68">
+        <v>100</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>105</v>
+      </c>
+      <c r="AB68">
+        <v>100</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" t="s">
+        <v>17</v>
+      </c>
+      <c r="O69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P69" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>17</v>
+      </c>
+      <c r="R69" t="s">
+        <v>17</v>
+      </c>
+      <c r="S69" t="s">
+        <v>17</v>
+      </c>
+      <c r="T69" t="s">
+        <v>17</v>
+      </c>
+      <c r="U69" t="s">
+        <v>17</v>
+      </c>
+      <c r="V69" t="s">
+        <v>17</v>
+      </c>
+      <c r="W69" t="s">
+        <v>17</v>
+      </c>
+      <c r="X69" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>33</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" t="s">
+        <v>17</v>
+      </c>
+      <c r="O70" t="s">
+        <v>17</v>
+      </c>
+      <c r="P70" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>17</v>
+      </c>
+      <c r="R70" t="s">
+        <v>17</v>
+      </c>
+      <c r="S70" t="s">
+        <v>17</v>
+      </c>
+      <c r="T70" t="s">
+        <v>17</v>
+      </c>
+      <c r="U70" t="s">
+        <v>17</v>
+      </c>
+      <c r="V70" t="s">
+        <v>17</v>
+      </c>
+      <c r="W70" t="s">
+        <v>17</v>
+      </c>
+      <c r="X70" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>33</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71" t="s">
+        <v>17</v>
+      </c>
+      <c r="P71" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>17</v>
+      </c>
+      <c r="R71" t="s">
+        <v>17</v>
+      </c>
+      <c r="S71" t="s">
+        <v>17</v>
+      </c>
+      <c r="T71" t="s">
+        <v>17</v>
+      </c>
+      <c r="U71" t="s">
+        <v>17</v>
+      </c>
+      <c r="V71" t="s">
+        <v>17</v>
+      </c>
+      <c r="W71" t="s">
+        <v>17</v>
+      </c>
+      <c r="X71" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72">
+        <v>24</v>
+      </c>
+      <c r="J72">
+        <v>100</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>71</v>
+      </c>
+      <c r="M72">
+        <v>100</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>17</v>
+      </c>
+      <c r="R72">
+        <v>64</v>
+      </c>
+      <c r="S72">
+        <v>100</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>29</v>
+      </c>
+      <c r="V72">
+        <v>100</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>80</v>
+      </c>
+      <c r="Y72">
+        <v>100</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
+      <c r="A73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>33</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" t="s">
+        <v>17</v>
+      </c>
+      <c r="O73" t="s">
+        <v>17</v>
+      </c>
+      <c r="P73" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>17</v>
+      </c>
+      <c r="R73" t="s">
+        <v>17</v>
+      </c>
+      <c r="S73" t="s">
+        <v>17</v>
+      </c>
+      <c r="T73" t="s">
+        <v>17</v>
+      </c>
+      <c r="U73" t="s">
+        <v>17</v>
+      </c>
+      <c r="V73" t="s">
+        <v>17</v>
+      </c>
+      <c r="W73" t="s">
+        <v>17</v>
+      </c>
+      <c r="X73" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
+      <c r="A74" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>78</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>39</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" t="s">
+        <v>17</v>
+      </c>
+      <c r="O74" t="s">
+        <v>17</v>
+      </c>
+      <c r="P74" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>17</v>
+      </c>
+      <c r="R74" t="s">
+        <v>17</v>
+      </c>
+      <c r="S74" t="s">
+        <v>17</v>
+      </c>
+      <c r="T74" t="s">
+        <v>17</v>
+      </c>
+      <c r="U74" t="s">
+        <v>17</v>
+      </c>
+      <c r="V74" t="s">
+        <v>17</v>
+      </c>
+      <c r="W74" t="s">
+        <v>17</v>
+      </c>
+      <c r="X74" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA74">
+        <v>12</v>
+      </c>
+      <c r="AB74">
+        <v>100</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
+      <c r="A75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75">
+        <v>204</v>
+      </c>
+      <c r="D75">
+        <v>99.51</v>
+      </c>
+      <c r="E75">
+        <v>0.49</v>
+      </c>
+      <c r="F75">
+        <v>259</v>
+      </c>
+      <c r="G75">
+        <v>98.84</v>
+      </c>
+      <c r="H75">
+        <v>1.16</v>
+      </c>
+      <c r="I75">
+        <v>211</v>
+      </c>
+      <c r="J75">
+        <v>99.05</v>
+      </c>
+      <c r="K75">
+        <v>0.95</v>
+      </c>
+      <c r="L75">
+        <v>174</v>
+      </c>
+      <c r="M75">
+        <v>98.85</v>
+      </c>
+      <c r="N75">
+        <v>1.15</v>
+      </c>
+      <c r="O75">
+        <v>123</v>
+      </c>
+      <c r="P75">
+        <v>99.19</v>
+      </c>
+      <c r="Q75">
+        <v>0.81</v>
+      </c>
+      <c r="R75">
+        <v>106</v>
+      </c>
+      <c r="S75">
+        <v>98.11</v>
+      </c>
+      <c r="T75">
+        <v>1.89</v>
+      </c>
+      <c r="U75">
+        <v>86</v>
+      </c>
+      <c r="V75">
+        <v>98.84</v>
+      </c>
+      <c r="W75">
+        <v>1.16</v>
+      </c>
+      <c r="X75">
+        <v>263</v>
+      </c>
+      <c r="Y75">
+        <v>98.1</v>
+      </c>
+      <c r="Z75">
+        <v>1.9</v>
+      </c>
+      <c r="AA75">
+        <v>75</v>
+      </c>
+      <c r="AB75">
+        <v>98.67</v>
+      </c>
+      <c r="AC75">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
+      <c r="A76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76">
+        <v>204</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>259</v>
+      </c>
+      <c r="G76">
+        <v>99.61</v>
+      </c>
+      <c r="H76">
+        <v>0.39</v>
+      </c>
+      <c r="I76">
+        <v>211</v>
+      </c>
+      <c r="J76">
+        <v>98.1</v>
+      </c>
+      <c r="K76">
+        <v>1.9</v>
+      </c>
+      <c r="L76">
+        <v>174</v>
+      </c>
+      <c r="M76">
+        <v>98.85</v>
+      </c>
+      <c r="N76">
+        <v>1.15</v>
+      </c>
+      <c r="O76">
+        <v>123</v>
+      </c>
+      <c r="P76">
+        <v>99.19</v>
+      </c>
+      <c r="Q76">
+        <v>0.81</v>
+      </c>
+      <c r="R76">
+        <v>106</v>
+      </c>
+      <c r="S76">
+        <v>99.06</v>
+      </c>
+      <c r="T76">
+        <v>0.94</v>
+      </c>
+      <c r="U76">
+        <v>86</v>
+      </c>
+      <c r="V76">
+        <v>100</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>263</v>
+      </c>
+      <c r="Y76">
+        <v>99.62</v>
+      </c>
+      <c r="Z76">
+        <v>0.38</v>
+      </c>
+      <c r="AA76">
+        <v>75</v>
+      </c>
+      <c r="AB76">
+        <v>100</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="A77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77">
+        <v>204</v>
+      </c>
+      <c r="D77">
+        <v>99.51</v>
+      </c>
+      <c r="E77">
+        <v>0.49</v>
+      </c>
+      <c r="F77">
+        <v>259</v>
+      </c>
+      <c r="G77">
+        <v>99.23</v>
+      </c>
+      <c r="H77">
+        <v>0.77</v>
+      </c>
+      <c r="I77">
+        <v>211</v>
+      </c>
+      <c r="J77">
+        <v>98.58</v>
+      </c>
+      <c r="K77">
+        <v>1.42</v>
+      </c>
+      <c r="L77">
+        <v>174</v>
+      </c>
+      <c r="M77">
+        <v>97.7</v>
+      </c>
+      <c r="N77">
+        <v>2.3</v>
+      </c>
+      <c r="O77">
+        <v>123</v>
+      </c>
+      <c r="P77">
+        <v>100</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>106</v>
+      </c>
+      <c r="S77">
+        <v>99.06</v>
+      </c>
+      <c r="T77">
+        <v>0.94</v>
+      </c>
+      <c r="U77">
+        <v>86</v>
+      </c>
+      <c r="V77">
+        <v>97.67</v>
+      </c>
+      <c r="W77">
+        <v>2.33</v>
+      </c>
+      <c r="X77">
+        <v>263</v>
+      </c>
+      <c r="Y77">
+        <v>96.2</v>
+      </c>
+      <c r="Z77">
+        <v>3.8</v>
+      </c>
+      <c r="AA77">
+        <v>75</v>
+      </c>
+      <c r="AB77">
+        <v>98.67</v>
+      </c>
+      <c r="AC77">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
+      <c r="A78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78">
+        <v>144</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78">
+        <v>102</v>
+      </c>
+      <c r="M78">
+        <v>99.02</v>
+      </c>
+      <c r="N78">
+        <v>0.98</v>
+      </c>
+      <c r="O78">
+        <v>83</v>
+      </c>
+      <c r="P78">
+        <v>98.8</v>
+      </c>
+      <c r="Q78">
+        <v>1.2</v>
+      </c>
+      <c r="R78">
+        <v>68</v>
+      </c>
+      <c r="S78">
+        <v>100</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>63</v>
+      </c>
+      <c r="V78">
+        <v>95.24</v>
+      </c>
+      <c r="W78">
+        <v>4.76</v>
+      </c>
+      <c r="X78">
+        <v>94</v>
+      </c>
+      <c r="Y78">
+        <v>100</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
+      <c r="A79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79">
+        <v>33</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>144</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79">
+        <v>102</v>
+      </c>
+      <c r="M79">
+        <v>100</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>83</v>
+      </c>
+      <c r="P79">
+        <v>100</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>68</v>
+      </c>
+      <c r="S79">
+        <v>100</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>63</v>
+      </c>
+      <c r="V79">
+        <v>100</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>94</v>
+      </c>
+      <c r="Y79">
+        <v>100</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="A80" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80">
+        <v>18</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" t="s">
+        <v>17</v>
+      </c>
+      <c r="O80" t="s">
+        <v>17</v>
+      </c>
+      <c r="P80" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>17</v>
+      </c>
+      <c r="R80" t="s">
+        <v>17</v>
+      </c>
+      <c r="S80" t="s">
+        <v>17</v>
+      </c>
+      <c r="T80" t="s">
+        <v>17</v>
+      </c>
+      <c r="U80" t="s">
+        <v>17</v>
+      </c>
+      <c r="V80" t="s">
+        <v>17</v>
+      </c>
+      <c r="W80" t="s">
+        <v>17</v>
+      </c>
+      <c r="X80" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A1:AC1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
